--- a/bin/Debug/数据表/CommonConfig.xlsx
+++ b/bin/Debug/数据表/CommonConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>游戏版本号</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>无公告</t>
+  </si>
+  <si>
+    <t>adunit-e5d38f24b344680f</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +140,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -639,137 +651,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1102,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="16384" width="15.25" style="1" customWidth="1"/>
   </cols>
@@ -1229,7 +1244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:6">
+    <row r="5" ht="43.5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1240,16 +1255,30 @@
         <v>23</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+    <row r="6" ht="43.5" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>110001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="4"/>
@@ -1266,14 +1295,6 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
